--- a/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
+++ b/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>matt_karting</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
+++ b/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>z</t>
         </is>
       </c>
     </row>

--- a/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
+++ b/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,83 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>M. Verstappen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>O. Piastri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>z</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>matt_karting</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Leclerc</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Norris</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>la_bagguette</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Piastri</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Norris</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Leclerc</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>matt_karting</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>L. Norris</t>
         </is>
       </c>
     </row>

--- a/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
+++ b/data/Result_Qualif_Pronos_F1F_DEMO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>C. Leclerc</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>O. Piastri</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sf211921</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M. Verstappen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>O. Piastri</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>L. Norris</t>
         </is>
